--- a/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ACCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,114 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -773,98 +784,125 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>100</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>100</v>
-      </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1019,17 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,16 +1072,25 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1149,19 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1090,19 +1170,19 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1111,42 +1191,51 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-400</v>
@@ -1155,13 +1244,22 @@
         <v>-500</v>
       </c>
       <c r="O18" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,35 +1276,38 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1217,57 +1318,75 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1299,63 +1418,81 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="Q23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="Q26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="Q27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,25 +1747,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1603,14 +1785,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>4</v>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,34 +1906,43 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1745,57 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,19 +2224,22 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -1988,22 +2248,22 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2011,8 +2271,17 @@
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,60 +2324,78 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2120,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2143,22 +2430,31 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2182,48 +2478,57 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2231,8 +2536,17 @@
       <c r="P46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,37 +2589,46 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -2319,8 +2642,17 @@
       <c r="P48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+      <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2481,22 +2840,31 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2907,70 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +3008,19 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -2637,98 +3029,116 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2737,66 +3147,84 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="E60" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,35 +3267,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2877,14 +3314,23 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-7400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-5000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-3100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1000</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +4221,19 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4533,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3919,7 +4569,7 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3928,16 +4578,25 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4613,19 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3998,8 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5052,70 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5158,17 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4442,18 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3288,16 +3288,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>

--- a/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACCA_QTR_FIN.xlsx
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
